--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/35.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/35.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3233169222319665</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.605684336833294</v>
+        <v>-1.608603355293746</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06086664655129717</v>
+        <v>0.05734399175782624</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1871861748127208</v>
+        <v>-0.1876631026064749</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3299308523963977</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.541458060607741</v>
+        <v>-1.545614258097535</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08683638803363722</v>
+        <v>0.08286041573323168</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1885555714482524</v>
+        <v>-0.1888971335975747</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3459494478565049</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.647935732106369</v>
+        <v>-1.651360797714319</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09957335076320238</v>
+        <v>0.09567922745710448</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1862889839135794</v>
+        <v>-0.1867596156308483</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3652172041188734</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.696457232549144</v>
+        <v>-1.700004284638995</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1420010361778624</v>
+        <v>0.1373812900568449</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2171476287866794</v>
+        <v>-0.2176277046186761</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3792568216202852</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782646584583767</v>
+        <v>-1.782504135853289</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2295999223356096</v>
+        <v>0.2236296678085161</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2663247081934768</v>
+        <v>-0.2654747378679744</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3797830871991251</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.708852633129387</v>
+        <v>-1.707516290895403</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3032482770212688</v>
+        <v>0.2961636169562944</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2768816544400405</v>
+        <v>-0.2755484602442989</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3640150588322764</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.538864077095837</v>
+        <v>-1.535424058306235</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3738304424586342</v>
+        <v>0.3674163145393339</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2793465683839974</v>
+        <v>-0.2775285762988951</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3338273930609684</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.182406197819159</v>
+        <v>-1.178659245300903</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4041192924098234</v>
+        <v>0.3988022558180697</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2750384780489974</v>
+        <v>-0.2727404101318984</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2941936626571816</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7849970630636007</v>
+        <v>-0.7804764801472251</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4431014499679562</v>
+        <v>0.4372555429514454</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2356392054237199</v>
+        <v>-0.2330389258353311</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.248714308589981</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.259578462239582</v>
+        <v>-0.256542179354593</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4147108670770557</v>
+        <v>0.4085737665231043</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.17780659486889</v>
+        <v>-0.1750190070050665</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1983434892857952</v>
       </c>
       <c r="E12" t="n">
-        <v>0.31132142109442</v>
+        <v>0.3132936670534098</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2887767452200303</v>
+        <v>0.2825121491172535</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1240318056087733</v>
+        <v>-0.1208837673661719</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1435282159761054</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8936423871725798</v>
+        <v>0.8949126206034695</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09359837417874498</v>
+        <v>0.08791931318909209</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01057808136454105</v>
+        <v>-0.008059650770459946</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.08508420006872899</v>
       </c>
       <c r="E14" t="n">
-        <v>1.596887372244665</v>
+        <v>1.593953400602561</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01215075474704089</v>
+        <v>0.004659997748770912</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08698749386928209</v>
+        <v>0.08925093336571248</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.02399182487853747</v>
       </c>
       <c r="E15" t="n">
-        <v>2.262201644531646</v>
+        <v>2.25454561552564</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1306143535740528</v>
+        <v>-0.139655519406804</v>
       </c>
       <c r="G15" t="n">
-        <v>0.203815915109583</v>
+        <v>0.2062068501548388</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.03785907004573927</v>
       </c>
       <c r="E16" t="n">
-        <v>2.862660032944554</v>
+        <v>2.853585812710255</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2569954968615276</v>
+        <v>-0.2683835252041381</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3075327570694493</v>
+        <v>0.3103408071818497</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.09859578004013174</v>
       </c>
       <c r="E17" t="n">
-        <v>3.398945661782033</v>
+        <v>3.390071341976139</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.369863685992636</v>
+        <v>-0.3849191788878771</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3926336748816923</v>
+        <v>0.3957329185315333</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1574002053063097</v>
       </c>
       <c r="E18" t="n">
-        <v>3.871640918118963</v>
+        <v>3.86144757028942</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5489052130023466</v>
+        <v>-0.5654638941584299</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4891651195528208</v>
+        <v>0.4933268261095398</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2148178719431596</v>
       </c>
       <c r="E19" t="n">
-        <v>4.247697696484518</v>
+        <v>4.237263523729415</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7507574251179469</v>
+        <v>-0.7683880132956359</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6110351240386479</v>
+        <v>0.6152786795896745</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2754689148020056</v>
       </c>
       <c r="E20" t="n">
-        <v>4.523646858735347</v>
+        <v>4.51519122801572</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9590261261815294</v>
+        <v>-0.9772941921033451</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7175489979770654</v>
+        <v>0.7217705172603939</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3479106645396133</v>
       </c>
       <c r="E21" t="n">
-        <v>4.732154023695807</v>
+        <v>4.725070937649954</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.079990282663048</v>
+        <v>-1.099991343637416</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8607406654800316</v>
+        <v>0.8642538761587747</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4370910639693036</v>
       </c>
       <c r="E22" t="n">
-        <v>4.879181575797383</v>
+        <v>4.873398629545724</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.248204919146892</v>
+        <v>-1.26904178427467</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9619847234003345</v>
+        <v>0.9651406317385423</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.541898245519876</v>
       </c>
       <c r="E23" t="n">
-        <v>4.926032254942898</v>
+        <v>4.922541080531853</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.499014635001868</v>
+        <v>-1.517410196472509</v>
       </c>
       <c r="G23" t="n">
-        <v>1.015172403528206</v>
+        <v>1.019456883576386</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6570120453635182</v>
       </c>
       <c r="E24" t="n">
-        <v>4.975991621852982</v>
+        <v>4.97428381110637</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.706747382554647</v>
+        <v>-1.723142365722115</v>
       </c>
       <c r="G24" t="n">
-        <v>1.111862824130586</v>
+        <v>1.115327240216569</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7753179337899665</v>
       </c>
       <c r="E25" t="n">
-        <v>4.942483902798733</v>
+        <v>4.942951386477759</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.868157534377108</v>
+        <v>-1.882857298950936</v>
       </c>
       <c r="G25" t="n">
-        <v>1.159209319299311</v>
+        <v>1.162289674719696</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8883480971612655</v>
       </c>
       <c r="E26" t="n">
-        <v>4.930938472543992</v>
+        <v>4.93133512536256</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.929769364842181</v>
+        <v>-1.944508479894041</v>
       </c>
       <c r="G26" t="n">
-        <v>1.188549035720355</v>
+        <v>1.191328753488572</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9879289200215911</v>
       </c>
       <c r="E27" t="n">
-        <v>4.836377699812732</v>
+        <v>4.838523087875065</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.016236531251713</v>
+        <v>-2.029167098333198</v>
       </c>
       <c r="G27" t="n">
-        <v>1.208622501574303</v>
+        <v>1.211515548719254</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.068653898830711</v>
       </c>
       <c r="E28" t="n">
-        <v>4.719417060966242</v>
+        <v>4.721995304286932</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.081332453041785</v>
+        <v>-2.09284718992366</v>
       </c>
       <c r="G28" t="n">
-        <v>1.1968803189294</v>
+        <v>1.199985858655726</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.126756552532304</v>
       </c>
       <c r="E29" t="n">
-        <v>4.596786805244826</v>
+        <v>4.600257517407295</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.174354622081974</v>
+        <v>-2.18306288287057</v>
       </c>
       <c r="G29" t="n">
-        <v>1.162324303140365</v>
+        <v>1.165516413918362</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.160266343210201</v>
       </c>
       <c r="E30" t="n">
-        <v>4.493337546535582</v>
+        <v>4.497774706438528</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.176759723299321</v>
+        <v>-2.184743148282558</v>
       </c>
       <c r="G30" t="n">
-        <v>1.115542880836187</v>
+        <v>1.119397653664252</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.170617755609679</v>
       </c>
       <c r="E31" t="n">
-        <v>4.30640546167079</v>
+        <v>4.31117316558921</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.141187678167487</v>
+        <v>-2.148226691677943</v>
       </c>
       <c r="G31" t="n">
-        <v>1.049234177313153</v>
+        <v>1.053252648129833</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.160385909815853</v>
       </c>
       <c r="E32" t="n">
-        <v>4.121006471430146</v>
+        <v>4.126635163807918</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.059500807829345</v>
+        <v>-2.066982120712887</v>
       </c>
       <c r="G32" t="n">
-        <v>1.022227157229876</v>
+        <v>1.02655256177521</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.131583089079653</v>
       </c>
       <c r="E33" t="n">
-        <v>3.905428812576804</v>
+        <v>3.911713870928158</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.003564103306121</v>
+        <v>-2.010354421795412</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9405764893315238</v>
+        <v>0.9442297877120627</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.086314300458397</v>
       </c>
       <c r="E34" t="n">
-        <v>3.691658127674715</v>
+        <v>3.699249621896748</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.904187619073242</v>
+        <v>-1.911616989325781</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8498012325869918</v>
+        <v>0.854455607128678</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.026408454198972</v>
       </c>
       <c r="E35" t="n">
-        <v>3.452649620181691</v>
+        <v>3.460332407512759</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.84045951989958</v>
+        <v>-1.847748015440763</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7804153216818149</v>
+        <v>0.7851641373707791</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9540355762740407</v>
       </c>
       <c r="E36" t="n">
-        <v>3.21883694980808</v>
+        <v>3.226792042447134</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.75888361790949</v>
+        <v>-1.767109441837408</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7274543003074107</v>
+        <v>0.7316789676289817</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.872844417199045</v>
       </c>
       <c r="E37" t="n">
-        <v>3.032721780867244</v>
+        <v>3.039301180794281</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.684224742947956</v>
+        <v>-1.694097777886314</v>
       </c>
       <c r="G37" t="n">
-        <v>0.666382358400944</v>
+        <v>0.6706841526594587</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7878458869759314</v>
       </c>
       <c r="E38" t="n">
-        <v>2.798526623847157</v>
+        <v>2.806993272700634</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.61637664872429</v>
+        <v>-1.625490219436621</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5863560782357744</v>
+        <v>0.5912544257412621</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7031010230567407</v>
       </c>
       <c r="E39" t="n">
-        <v>2.550236125595823</v>
+        <v>2.55918757233866</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.56575619378326</v>
+        <v>-1.575319933964282</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5285502260060067</v>
+        <v>0.5325340684020187</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6218158669580823</v>
       </c>
       <c r="E40" t="n">
-        <v>2.304380634925141</v>
+        <v>2.3131416253543</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.495517951523898</v>
+        <v>-1.505380755337969</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5012630305191379</v>
+        <v>0.5048360539244905</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5481837413571261</v>
       </c>
       <c r="E41" t="n">
-        <v>2.102950259934049</v>
+        <v>2.112480945713525</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.472246865825028</v>
+        <v>-1.481598113424676</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4281246580287801</v>
+        <v>0.4325932983141528</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4843311380578348</v>
       </c>
       <c r="E42" t="n">
-        <v>1.89836397660475</v>
+        <v>1.907378384112439</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.437461043244283</v>
+        <v>-1.446692665390712</v>
       </c>
       <c r="G42" t="n">
-        <v>0.411707638593614</v>
+        <v>0.4151059458765022</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4305453002538431</v>
       </c>
       <c r="E43" t="n">
-        <v>1.753019050943844</v>
+        <v>1.761065436691933</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.402530410904378</v>
+        <v>-1.41087035121859</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3665206976593138</v>
+        <v>0.3702479749385539</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3867585016469777</v>
       </c>
       <c r="E44" t="n">
-        <v>1.517865316278885</v>
+        <v>1.527123696750376</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.362562917376311</v>
+        <v>-1.370652588650236</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3133865341815665</v>
+        <v>0.3168005816556677</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3515428636847834</v>
       </c>
       <c r="E45" t="n">
-        <v>1.319272897763499</v>
+        <v>1.329930581233826</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.307658769396661</v>
+        <v>-1.31564376839902</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2963005566198476</v>
+        <v>0.2987324161622571</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3226065359378904</v>
       </c>
       <c r="E46" t="n">
-        <v>1.159689395131307</v>
+        <v>1.170011812528797</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.262844083984549</v>
+        <v>-1.269808331586744</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2732584907031268</v>
+        <v>0.2752181445091461</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2979517487980082</v>
       </c>
       <c r="E47" t="n">
-        <v>1.012548513652998</v>
+        <v>1.022286969956485</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.184360342558254</v>
+        <v>-1.191686614558348</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2442524663357977</v>
+        <v>0.2455667723020838</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2766622603717169</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8646993235701028</v>
+        <v>0.8742992661909157</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.1657310392481</v>
+        <v>-1.171292835813216</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2046139428040825</v>
+        <v>0.2059550070954307</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2576063218519954</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7344114648235597</v>
+        <v>0.7427128416692995</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.084692664787934</v>
+        <v>-1.09132007229817</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1650257878842489</v>
+        <v>0.165597156825281</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2395472444375677</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6011235256318175</v>
+        <v>0.6100497880687137</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.027432210183697</v>
+        <v>-1.034121791449224</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1224643108442783</v>
+        <v>0.1231568792576506</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2225524937259806</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4831696807197865</v>
+        <v>0.4926437018108953</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9658967196460069</v>
+        <v>-0.9733221548507428</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1020272465733102</v>
+        <v>0.1023971410668158</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.206241429291269</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3640526356771144</v>
+        <v>0.3733377744736671</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9395712498422528</v>
+        <v>-0.9469046049283928</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05999306593897529</v>
+        <v>0.06050934421076191</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1900825324041695</v>
       </c>
       <c r="E53" t="n">
-        <v>0.20473199423818</v>
+        <v>0.2150512635974274</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9204036319926137</v>
+        <v>-0.9273025578012746</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02277853185406313</v>
+        <v>0.02326805180078764</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1742783378596512</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1015156903588874</v>
+        <v>0.1110101736985732</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8729099660360474</v>
+        <v>-0.8805093303536872</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01399842491512744</v>
+        <v>-0.01317836095292978</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1593385453421422</v>
       </c>
       <c r="E55" t="n">
-        <v>0.006625947631275471</v>
+        <v>0.01481084706203905</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8462846455896856</v>
+        <v>-0.854672593487097</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04234336125151023</v>
+        <v>-0.0415972761880137</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.145220020206921</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09053038263100949</v>
+        <v>-0.08208419602610999</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8443848045102756</v>
+        <v>-0.852775113436369</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04827741333881382</v>
+        <v>-0.04797677568664539</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1326282101290867</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2240040560790652</v>
+        <v>-0.214208935087211</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8322554131615326</v>
+        <v>-0.8410014504090398</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09011956364035001</v>
+        <v>-0.08982522206466677</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1219196627214609</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3123836557209775</v>
+        <v>-0.302461039180298</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7816538464499581</v>
+        <v>-0.7924642097750512</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1219116018523813</v>
+        <v>-0.1214063417144438</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1129551738266766</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4327032513723234</v>
+        <v>-0.4214348484829318</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8347266231819747</v>
+        <v>-0.8445894269960448</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1490980601154868</v>
+        <v>-0.1485503014612741</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1048984723809766</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4934273350529826</v>
+        <v>-0.4825681771351292</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8067201009566716</v>
+        <v>-0.8177476789205042</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1675817666569208</v>
+        <v>-0.1673409417313617</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.09714148402521534</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5932547757641149</v>
+        <v>-0.5821721071310367</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8259357263895103</v>
+        <v>-0.8369939977262083</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2005008025598033</v>
+        <v>-0.1998837870642535</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.08854015238175396</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6823521281253403</v>
+        <v>-0.671289921740839</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8677825987484105</v>
+        <v>-0.8786275904941722</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2256347398887327</v>
+        <v>-0.2255827972577298</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.0782916269822316</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7663134560937616</v>
+        <v>-0.7544563700530035</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8690811645234835</v>
+        <v>-0.8802661443994462</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2392751895939245</v>
+        <v>-0.2393712047603238</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.06595937651114199</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8161280132446858</v>
+        <v>-0.8040851929476142</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8768709851548006</v>
+        <v>-0.8886084457423398</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2662397111609265</v>
+        <v>-0.2659941641780036</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.05139617980922929</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8936146135576366</v>
+        <v>-0.8825437500679683</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8798443072749376</v>
+        <v>-0.891635284512601</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2782479030373295</v>
+        <v>-0.2781172594502616</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.03472075163374463</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9219296435307147</v>
+        <v>-0.9111279373107888</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8905405542137365</v>
+        <v>-0.9024354167134057</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2923589844597902</v>
+        <v>-0.2920898271900478</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.01626422445244163</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9921474235414991</v>
+        <v>-0.9815109893293097</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8659992350839767</v>
+        <v>-0.8788274909225774</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2860251315156762</v>
+        <v>-0.2867334401202615</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.003677926932742469</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.013595795097903</v>
+        <v>-1.003322172293173</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9211811974385362</v>
+        <v>-0.9335435436172318</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3076269699364069</v>
+        <v>-0.3080488070609154</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.02466900318612769</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.025616579127276</v>
+        <v>-1.015767154475737</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9018136791604919</v>
+        <v>-0.9150189125786441</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3247208175937323</v>
+        <v>-0.3251788571580308</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.04623642860440898</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.029343069396956</v>
+        <v>-1.021091274153537</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9358227233048753</v>
+        <v>-0.9491318419850332</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3244689745343242</v>
+        <v>-0.3251977453874864</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06745739090933438</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9959659939297745</v>
+        <v>-0.9885200964764617</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9798299369077605</v>
+        <v>-0.9928234647540977</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3208266942876344</v>
+        <v>-0.3222417374776838</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.08773766257025295</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9328328739839646</v>
+        <v>-0.9271601090707969</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.037328855408875</v>
+        <v>-1.049835224337169</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.294184846640499</v>
+        <v>-0.2962326455173112</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.106447210056756</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8627669868183858</v>
+        <v>-0.858352650192698</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.074315943730759</v>
+        <v>-1.085914103626063</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2982914625279725</v>
+        <v>-0.2997537262916608</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.122625150696591</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8042756492612916</v>
+        <v>-0.8010001154698648</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.119505245693741</v>
+        <v>-1.130536758705377</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.295132406151522</v>
+        <v>-0.296624576278515</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1356070850782004</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6808300516350425</v>
+        <v>-0.6793331594506856</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.160780749111609</v>
+        <v>-1.170496382137837</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2638519241539134</v>
+        <v>-0.2657061186788056</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1449463161906043</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5379390217842448</v>
+        <v>-0.5372684896385707</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.223026122273005</v>
+        <v>-1.231857943562623</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2338432496063158</v>
+        <v>-0.2360909489115332</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1502004518062072</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4176603506300527</v>
+        <v>-0.4180444112956501</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.222114765201772</v>
+        <v>-1.230986723978984</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1960069779684899</v>
+        <v>-0.198525408562571</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1511342352926464</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2828755192539535</v>
+        <v>-0.2835491994378702</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.255424157846737</v>
+        <v>-1.263790856486011</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.174560967440768</v>
+        <v>-0.1770872681304556</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1475299473740098</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1352278036185851</v>
+        <v>-0.1368474692944035</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.276550642492835</v>
+        <v>-1.283846221120064</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1380720561707754</v>
+        <v>-0.1411508375720396</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1394896104853105</v>
       </c>
       <c r="E80" t="n">
-        <v>0.006163186009613068</v>
+        <v>0.004682034016469121</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.26302667020262</v>
+        <v>-1.270198688328826</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1109753169975841</v>
+        <v>-0.1140273400737861</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.127249840292142</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1595104248832113</v>
+        <v>0.1583598169055405</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.302836761818557</v>
+        <v>-1.308644892376156</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.092192546823103</v>
+        <v>-0.09496282047659221</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1120461020879691</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2708250571415959</v>
+        <v>0.2701073044222828</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.30696698799285</v>
+        <v>-1.313026961609857</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02046449546543067</v>
+        <v>-0.02446407805265571</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09526535062768886</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4327082017100077</v>
+        <v>0.4320675759276384</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.285506024283475</v>
+        <v>-1.290455527410405</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.007936877278998493</v>
+        <v>-0.01129898212209676</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.07843241235312455</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5658891076015016</v>
+        <v>0.5659725306149305</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.28618914858212</v>
+        <v>-1.289987256721818</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07296455751761426</v>
+        <v>0.06740039992381633</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.06324044559136377</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7038204032010809</v>
+        <v>0.7040328957824564</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.234444843988481</v>
+        <v>-1.237636954766479</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1128643682234654</v>
+        <v>0.1066973613062093</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05083561998189439</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8898914996065204</v>
+        <v>0.889973348600828</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.194611929095285</v>
+        <v>-1.196887173735125</v>
       </c>
       <c r="G86" t="n">
-        <v>0.157127359933562</v>
+        <v>0.1508249873718741</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04211004903487411</v>
       </c>
       <c r="E87" t="n">
-        <v>1.012483978869024</v>
+        <v>1.012285652459741</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.060961178496083</v>
+        <v>-1.063698397748025</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1876570348103102</v>
+        <v>0.1815026200460245</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.03775478288966854</v>
       </c>
       <c r="E88" t="n">
-        <v>1.147487598902984</v>
+        <v>1.146829658910281</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9467574341405511</v>
+        <v>-0.9491035096408498</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2194711092900397</v>
+        <v>0.2133371567743309</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.03800239405139664</v>
       </c>
       <c r="E89" t="n">
-        <v>1.252400695395039</v>
+        <v>1.252251163578516</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8618658608714411</v>
+        <v>-0.8633375687498572</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2313943041338924</v>
+        <v>0.2252430374078493</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04217407611851859</v>
       </c>
       <c r="E90" t="n">
-        <v>1.329910118985249</v>
+        <v>1.329502448032832</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.745429370392344</v>
+        <v>-0.7457709325416663</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1988058122464829</v>
+        <v>0.1946598458809769</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04887408901170832</v>
       </c>
       <c r="E91" t="n">
-        <v>1.321238847646003</v>
+        <v>1.321689017114695</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6050851034798108</v>
+        <v>-0.6044854021945952</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1937799691921699</v>
+        <v>0.189577338138297</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.05620347995875442</v>
       </c>
       <c r="E92" t="n">
-        <v>1.307411089665377</v>
+        <v>1.308730117689027</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4734388662315852</v>
+        <v>-0.472097801940237</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1689372254006811</v>
+        <v>0.1654759573529409</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0632572635509162</v>
       </c>
       <c r="E93" t="n">
-        <v>1.276812157947292</v>
+        <v>1.27851682065566</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3377174934783121</v>
+        <v>-0.3356146039322544</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1620414476302628</v>
+        <v>0.1587533216858656</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06934852478132046</v>
       </c>
       <c r="E94" t="n">
-        <v>1.195865076596161</v>
+        <v>1.198912377614999</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1887885262782049</v>
+        <v>-0.1864322196536178</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1434570038650656</v>
+        <v>0.1399831436643549</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.07516028875524269</v>
       </c>
       <c r="E95" t="n">
-        <v>1.163325379301512</v>
+        <v>1.166613505245909</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0963054587870617</v>
+        <v>-0.09244124184426852</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1254218927732023</v>
+        <v>0.1214522165492819</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08113362807800992</v>
       </c>
       <c r="E96" t="n">
-        <v>1.122352087554934</v>
+        <v>1.12441720064208</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01048544251670476</v>
+        <v>0.01362718468282093</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05747148730665159</v>
+        <v>0.05481139499165343</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08752843875813947</v>
       </c>
       <c r="E97" t="n">
-        <v>1.027456048750837</v>
+        <v>1.030851207995482</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06638043553321347</v>
+        <v>0.06902636167611993</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03275938710223079</v>
+        <v>0.03068482990035648</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09695385099443074</v>
       </c>
       <c r="E98" t="n">
-        <v>1.002871444095241</v>
+        <v>1.005204140433009</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1001384236277493</v>
+        <v>0.1024270474301205</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.006578498777315999</v>
+        <v>-0.008218626701711315</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1095495025462402</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9780869390112404</v>
+        <v>0.979456335646772</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1654759573529409</v>
+        <v>0.1658710361523874</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02439324719219719</v>
+        <v>-0.0258082903822465</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1284107159268626</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8875399150392971</v>
+        <v>0.8887975563172164</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1541052432206647</v>
+        <v>0.1544137509684397</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03513907573331698</v>
+        <v>-0.03602839653685187</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1514502109636083</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8059789662308594</v>
+        <v>0.8076615926715298</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1418845587628862</v>
+        <v>0.1421253836884452</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.064034918762155</v>
+        <v>-0.06462832397088536</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1833676378255892</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6837862878251657</v>
+        <v>0.6860497273215961</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1371546313033776</v>
+        <v>0.1374489728790608</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08174420789590904</v>
+        <v>-0.08265084290977824</v>
       </c>
     </row>
   </sheetData>
